--- a/Excel-XLSX/UN-GUI.xlsx
+++ b/Excel-XLSX/UN-GUI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>0wXz74</t>
+    <t>p8eKtO</t>
   </si>
   <si>
     <t>2002</t>
@@ -1269,6 +1269,9 @@
     <t>210</t>
   </si>
   <si>
+    <t>318</t>
+  </si>
+  <si>
     <t>211</t>
   </si>
   <si>
@@ -1711,9 +1714,6 @@
   </si>
   <si>
     <t>317</t>
-  </si>
-  <si>
-    <t>318</t>
   </si>
   <si>
     <t>319</t>
@@ -2478,8 +2478,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -2546,8 +2546,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -2614,8 +2614,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -2682,8 +2682,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -2750,8 +2750,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -2818,8 +2818,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>35</v>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -2886,8 +2886,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>35</v>
+      <c r="V8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -2954,8 +2954,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -3022,8 +3022,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -3090,8 +3090,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -3158,8 +3158,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -3226,8 +3226,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -3294,8 +3294,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -3362,8 +3362,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>35</v>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -3430,8 +3430,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>35</v>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -3498,8 +3498,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>35</v>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -3566,8 +3566,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>35</v>
+      <c r="V18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -3634,8 +3634,8 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>35</v>
+      <c r="V19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3702,8 +3702,8 @@
       <c r="U20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>35</v>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3770,8 +3770,8 @@
       <c r="U21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>35</v>
+      <c r="V21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3838,8 +3838,8 @@
       <c r="U22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>35</v>
+      <c r="V22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -3906,8 +3906,8 @@
       <c r="U23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>35</v>
+      <c r="V23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3974,8 +3974,8 @@
       <c r="U24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>35</v>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -4042,8 +4042,8 @@
       <c r="U25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>35</v>
+      <c r="V25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -4110,8 +4110,8 @@
       <c r="U26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>35</v>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -4178,8 +4178,8 @@
       <c r="U27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>35</v>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -4246,8 +4246,8 @@
       <c r="U28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>35</v>
+      <c r="V28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -4314,8 +4314,8 @@
       <c r="U29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>35</v>
+      <c r="V29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -4382,8 +4382,8 @@
       <c r="U30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>35</v>
+      <c r="V30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4586,8 +4586,8 @@
       <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>35</v>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4654,8 +4654,8 @@
       <c r="U34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>35</v>
+      <c r="V34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -4722,8 +4722,8 @@
       <c r="U35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>35</v>
+      <c r="V35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -4790,8 +4790,8 @@
       <c r="U36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>35</v>
+      <c r="V36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -4858,8 +4858,8 @@
       <c r="U37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>35</v>
+      <c r="V37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -4926,8 +4926,8 @@
       <c r="U38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>35</v>
+      <c r="V38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -4994,8 +4994,8 @@
       <c r="U39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>35</v>
+      <c r="V39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5062,8 +5062,8 @@
       <c r="U40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>35</v>
+      <c r="V40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -5130,8 +5130,8 @@
       <c r="U41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>35</v>
+      <c r="V41" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -5198,8 +5198,8 @@
       <c r="U42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>35</v>
+      <c r="V42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -5266,8 +5266,8 @@
       <c r="U43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>35</v>
+      <c r="V43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -5334,8 +5334,8 @@
       <c r="U44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>35</v>
+      <c r="V44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -5402,8 +5402,8 @@
       <c r="U45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>35</v>
+      <c r="V45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -5470,8 +5470,8 @@
       <c r="U46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>35</v>
+      <c r="V46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -5538,8 +5538,8 @@
       <c r="U47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>35</v>
+      <c r="V47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -5606,8 +5606,8 @@
       <c r="U48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>35</v>
+      <c r="V48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -5674,8 +5674,8 @@
       <c r="U49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>35</v>
+      <c r="V49" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -5878,8 +5878,8 @@
       <c r="U52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>35</v>
+      <c r="V52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -5946,8 +5946,8 @@
       <c r="U53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>35</v>
+      <c r="V53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -6014,8 +6014,8 @@
       <c r="U54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>35</v>
+      <c r="V54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -6082,8 +6082,8 @@
       <c r="U55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>35</v>
+      <c r="V55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -6150,8 +6150,8 @@
       <c r="U56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>35</v>
+      <c r="V56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -6218,8 +6218,8 @@
       <c r="U57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>35</v>
+      <c r="V57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -6286,8 +6286,8 @@
       <c r="U58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>35</v>
+      <c r="V58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -6354,8 +6354,8 @@
       <c r="U59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>35</v>
+      <c r="V59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -6422,8 +6422,8 @@
       <c r="U60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>35</v>
+      <c r="V60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -6490,8 +6490,8 @@
       <c r="U61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>35</v>
+      <c r="V61" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -6558,8 +6558,8 @@
       <c r="U62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>35</v>
+      <c r="V62" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -6626,8 +6626,8 @@
       <c r="U63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>35</v>
+      <c r="V63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -6694,8 +6694,8 @@
       <c r="U64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>35</v>
+      <c r="V64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -6762,8 +6762,8 @@
       <c r="U65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>35</v>
+      <c r="V65" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -6830,8 +6830,8 @@
       <c r="U66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>35</v>
+      <c r="V66" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -6898,8 +6898,8 @@
       <c r="U67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>35</v>
+      <c r="V67" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -6966,8 +6966,8 @@
       <c r="U68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>35</v>
+      <c r="V68" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -7034,8 +7034,8 @@
       <c r="U69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>35</v>
+      <c r="V69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -7102,8 +7102,8 @@
       <c r="U70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>35</v>
+      <c r="V70" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -7170,8 +7170,8 @@
       <c r="U71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>35</v>
+      <c r="V71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -7238,8 +7238,8 @@
       <c r="U72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>35</v>
+      <c r="V72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -7306,8 +7306,8 @@
       <c r="U73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>35</v>
+      <c r="V73" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -7374,8 +7374,8 @@
       <c r="U74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>35</v>
+      <c r="V74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -7442,8 +7442,8 @@
       <c r="U75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>35</v>
+      <c r="V75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -7510,8 +7510,8 @@
       <c r="U76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>35</v>
+      <c r="V76" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -7578,8 +7578,8 @@
       <c r="U77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>35</v>
+      <c r="V77" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -7646,8 +7646,8 @@
       <c r="U78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>35</v>
+      <c r="V78" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -7714,8 +7714,8 @@
       <c r="U79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>35</v>
+      <c r="V79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -7782,8 +7782,8 @@
       <c r="U80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>35</v>
+      <c r="V80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -7850,8 +7850,8 @@
       <c r="U81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>35</v>
+      <c r="V81" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -7918,8 +7918,8 @@
       <c r="U82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>35</v>
+      <c r="V82" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -7986,8 +7986,8 @@
       <c r="U83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>35</v>
+      <c r="V83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -8054,8 +8054,8 @@
       <c r="U84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>35</v>
+      <c r="V84" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -8122,8 +8122,8 @@
       <c r="U85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>35</v>
+      <c r="V85" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -8190,8 +8190,8 @@
       <c r="U86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>35</v>
+      <c r="V86" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -8258,8 +8258,8 @@
       <c r="U87" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>35</v>
+      <c r="V87" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -8326,8 +8326,8 @@
       <c r="U88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>35</v>
+      <c r="V88" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -8394,8 +8394,8 @@
       <c r="U89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>35</v>
+      <c r="V89" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -8598,8 +8598,8 @@
       <c r="U92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>35</v>
+      <c r="V92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -8666,8 +8666,8 @@
       <c r="U93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>35</v>
+      <c r="V93" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -8734,8 +8734,8 @@
       <c r="U94" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>35</v>
+      <c r="V94" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -8802,8 +8802,8 @@
       <c r="U95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>35</v>
+      <c r="V95" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -8870,8 +8870,8 @@
       <c r="U96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>35</v>
+      <c r="V96" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -8938,8 +8938,8 @@
       <c r="U97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>35</v>
+      <c r="V97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -9006,8 +9006,8 @@
       <c r="U98" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>35</v>
+      <c r="V98" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -9074,8 +9074,8 @@
       <c r="U99" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>35</v>
+      <c r="V99" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100">
@@ -9142,8 +9142,8 @@
       <c r="U100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>35</v>
+      <c r="V100" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -9210,8 +9210,8 @@
       <c r="U101" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>35</v>
+      <c r="V101" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
@@ -9278,8 +9278,8 @@
       <c r="U102" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>35</v>
+      <c r="V102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -9346,8 +9346,8 @@
       <c r="U103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>35</v>
+      <c r="V103" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104">
@@ -9414,8 +9414,8 @@
       <c r="U104" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>35</v>
+      <c r="V104" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105">
@@ -9482,8 +9482,8 @@
       <c r="U105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>35</v>
+      <c r="V105" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -9550,8 +9550,8 @@
       <c r="U106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>35</v>
+      <c r="V106" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -9618,8 +9618,8 @@
       <c r="U107" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>35</v>
+      <c r="V107" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
@@ -9686,8 +9686,8 @@
       <c r="U108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>35</v>
+      <c r="V108" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -9754,8 +9754,8 @@
       <c r="U109" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>35</v>
+      <c r="V109" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -9822,8 +9822,8 @@
       <c r="U110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>35</v>
+      <c r="V110" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -9890,8 +9890,8 @@
       <c r="U111" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>35</v>
+      <c r="V111" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
@@ -9958,8 +9958,8 @@
       <c r="U112" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>35</v>
+      <c r="V112" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -10026,8 +10026,8 @@
       <c r="U113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>35</v>
+      <c r="V113" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -10094,8 +10094,8 @@
       <c r="U114" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>35</v>
+      <c r="V114" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115">
@@ -10162,8 +10162,8 @@
       <c r="U115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>35</v>
+      <c r="V115" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -10366,8 +10366,8 @@
       <c r="U118" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>35</v>
+      <c r="V118" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -10434,8 +10434,8 @@
       <c r="U119" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>35</v>
+      <c r="V119" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="120">
@@ -10502,8 +10502,8 @@
       <c r="U120" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>35</v>
+      <c r="V120" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121">
@@ -10570,8 +10570,8 @@
       <c r="U121" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>35</v>
+      <c r="V121" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -10638,8 +10638,8 @@
       <c r="U122" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>35</v>
+      <c r="V122" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="123">
@@ -10706,8 +10706,8 @@
       <c r="U123" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>35</v>
+      <c r="V123" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="124">
@@ -10774,8 +10774,8 @@
       <c r="U124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>35</v>
+      <c r="V124" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="125">
@@ -10842,8 +10842,8 @@
       <c r="U125" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>35</v>
+      <c r="V125" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="126">
@@ -10910,8 +10910,8 @@
       <c r="U126" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>35</v>
+      <c r="V126" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="127">
@@ -10978,8 +10978,8 @@
       <c r="U127" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>35</v>
+      <c r="V127" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -11046,8 +11046,8 @@
       <c r="U128" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>35</v>
+      <c r="V128" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="129">
@@ -11114,8 +11114,8 @@
       <c r="U129" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>35</v>
+      <c r="V129" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="130">
@@ -11182,8 +11182,8 @@
       <c r="U130" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>35</v>
+      <c r="V130" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -11250,8 +11250,8 @@
       <c r="U131" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>35</v>
+      <c r="V131" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="132">
@@ -11318,8 +11318,8 @@
       <c r="U132" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>35</v>
+      <c r="V132" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -11522,8 +11522,8 @@
       <c r="U135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>35</v>
+      <c r="V135" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="136">
@@ -11590,8 +11590,8 @@
       <c r="U136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>35</v>
+      <c r="V136" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="137">
@@ -11658,8 +11658,8 @@
       <c r="U137" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>35</v>
+      <c r="V137" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138">
@@ -11726,8 +11726,8 @@
       <c r="U138" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>35</v>
+      <c r="V138" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="139">
@@ -11930,8 +11930,8 @@
       <c r="U141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>35</v>
+      <c r="V141" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="142">
@@ -11998,8 +11998,8 @@
       <c r="U142" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>35</v>
+      <c r="V142" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="143">
@@ -12066,8 +12066,8 @@
       <c r="U143" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>35</v>
+      <c r="V143" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="144">
@@ -12134,8 +12134,8 @@
       <c r="U144" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>35</v>
+      <c r="V144" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="145">
@@ -12202,8 +12202,8 @@
       <c r="U145" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>35</v>
+      <c r="V145" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="146">
@@ -12270,8 +12270,8 @@
       <c r="U146" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>35</v>
+      <c r="V146" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="147">
@@ -12338,8 +12338,8 @@
       <c r="U147" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>35</v>
+      <c r="V147" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -12406,8 +12406,8 @@
       <c r="U148" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>35</v>
+      <c r="V148" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="149">
@@ -12474,8 +12474,8 @@
       <c r="U149" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>35</v>
+      <c r="V149" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -12542,8 +12542,8 @@
       <c r="U150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>35</v>
+      <c r="V150" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="151">
@@ -12610,8 +12610,8 @@
       <c r="U151" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>35</v>
+      <c r="V151" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="152">
@@ -12678,8 +12678,8 @@
       <c r="U152" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>35</v>
+      <c r="V152" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="153">
@@ -12746,8 +12746,8 @@
       <c r="U153" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>35</v>
+      <c r="V153" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="154">
@@ -12814,8 +12814,8 @@
       <c r="U154" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>35</v>
+      <c r="V154" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="155">
@@ -12882,8 +12882,8 @@
       <c r="U155" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>35</v>
+      <c r="V155" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -12950,8 +12950,8 @@
       <c r="U156" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>35</v>
+      <c r="V156" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157">
@@ -13018,8 +13018,8 @@
       <c r="U157" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>35</v>
+      <c r="V157" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="158">
@@ -13086,8 +13086,8 @@
       <c r="U158" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>35</v>
+      <c r="V158" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="159">
@@ -13154,8 +13154,8 @@
       <c r="U159" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>35</v>
+      <c r="V159" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="160">
@@ -13222,8 +13222,8 @@
       <c r="U160" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>35</v>
+      <c r="V160" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="161">
@@ -13290,8 +13290,8 @@
       <c r="U161" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>35</v>
+      <c r="V161" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="162">
@@ -13358,8 +13358,8 @@
       <c r="U162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>35</v>
+      <c r="V162" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="163">
@@ -13426,8 +13426,8 @@
       <c r="U163" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>35</v>
+      <c r="V163" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="164">
@@ -13494,8 +13494,8 @@
       <c r="U164" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>35</v>
+      <c r="V164" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="165">
@@ -13562,8 +13562,8 @@
       <c r="U165" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>35</v>
+      <c r="V165" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="166">
@@ -13630,8 +13630,8 @@
       <c r="U166" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>35</v>
+      <c r="V166" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="167">
@@ -13698,8 +13698,8 @@
       <c r="U167" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>35</v>
+      <c r="V167" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="168">
@@ -13766,8 +13766,8 @@
       <c r="U168" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>35</v>
+      <c r="V168" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="169">
@@ -13834,8 +13834,8 @@
       <c r="U169" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>35</v>
+      <c r="V169" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="170">
@@ -13902,8 +13902,8 @@
       <c r="U170" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>35</v>
+      <c r="V170" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="171">
@@ -13970,8 +13970,8 @@
       <c r="U171" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>35</v>
+      <c r="V171" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="172">
@@ -14038,8 +14038,8 @@
       <c r="U172" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>35</v>
+      <c r="V172" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="173">
@@ -14242,8 +14242,8 @@
       <c r="U175" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>35</v>
+      <c r="V175" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="176">
@@ -14310,8 +14310,8 @@
       <c r="U176" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>35</v>
+      <c r="V176" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="177">
@@ -14378,8 +14378,8 @@
       <c r="U177" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>35</v>
+      <c r="V177" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -14446,8 +14446,8 @@
       <c r="U178" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>35</v>
+      <c r="V178" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="179">
@@ -14514,8 +14514,8 @@
       <c r="U179" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>35</v>
+      <c r="V179" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="180">
@@ -14582,8 +14582,8 @@
       <c r="U180" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>35</v>
+      <c r="V180" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="181">
@@ -14650,8 +14650,8 @@
       <c r="U181" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>35</v>
+      <c r="V181" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="182">
@@ -14718,8 +14718,8 @@
       <c r="U182" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>35</v>
+      <c r="V182" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="183">
@@ -14786,8 +14786,8 @@
       <c r="U183" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>35</v>
+      <c r="V183" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="184">
@@ -14854,8 +14854,8 @@
       <c r="U184" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>35</v>
+      <c r="V184" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="185">
@@ -14922,8 +14922,8 @@
       <c r="U185" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>35</v>
+      <c r="V185" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="186">
@@ -14990,8 +14990,8 @@
       <c r="U186" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>35</v>
+      <c r="V186" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="187">
@@ -15058,8 +15058,8 @@
       <c r="U187" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>35</v>
+      <c r="V187" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="188">
@@ -15126,8 +15126,8 @@
       <c r="U188" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>35</v>
+      <c r="V188" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="189">
@@ -15194,8 +15194,8 @@
       <c r="U189" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>35</v>
+      <c r="V189" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="190">
@@ -15262,8 +15262,8 @@
       <c r="U190" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>35</v>
+      <c r="V190" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="191">
@@ -15330,8 +15330,8 @@
       <c r="U191" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>35</v>
+      <c r="V191" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="192">
@@ -15398,8 +15398,8 @@
       <c r="U192" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>35</v>
+      <c r="V192" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="193">
@@ -15466,8 +15466,8 @@
       <c r="U193" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>35</v>
+      <c r="V193" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="194">
@@ -15534,8 +15534,8 @@
       <c r="U194" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>35</v>
+      <c r="V194" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="195">
@@ -15602,8 +15602,8 @@
       <c r="U195" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>35</v>
+      <c r="V195" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="196">
@@ -15670,8 +15670,8 @@
       <c r="U196" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>35</v>
+      <c r="V196" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="197">
@@ -15738,8 +15738,8 @@
       <c r="U197" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>35</v>
+      <c r="V197" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="198">
@@ -15806,8 +15806,8 @@
       <c r="U198" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>35</v>
+      <c r="V198" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="199">
@@ -15874,8 +15874,8 @@
       <c r="U199" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>35</v>
+      <c r="V199" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="200">
@@ -15942,8 +15942,8 @@
       <c r="U200" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>35</v>
+      <c r="V200" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="201">
@@ -16010,8 +16010,8 @@
       <c r="U201" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>35</v>
+      <c r="V201" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="202">
@@ -16078,8 +16078,8 @@
       <c r="U202" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>35</v>
+      <c r="V202" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="203">
@@ -16146,8 +16146,8 @@
       <c r="U203" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>35</v>
+      <c r="V203" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="204">
@@ -16214,8 +16214,8 @@
       <c r="U204" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>35</v>
+      <c r="V204" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="205">
@@ -16282,8 +16282,8 @@
       <c r="U205" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>35</v>
+      <c r="V205" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="206">
@@ -16350,8 +16350,8 @@
       <c r="U206" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>35</v>
+      <c r="V206" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="207">
@@ -16418,8 +16418,8 @@
       <c r="U207" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>35</v>
+      <c r="V207" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="208">
@@ -16486,8 +16486,8 @@
       <c r="U208" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>35</v>
+      <c r="V208" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="209">
@@ -16554,8 +16554,8 @@
       <c r="U209" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>35</v>
+      <c r="V209" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="210">
@@ -16667,7 +16667,7 @@
         <v>32</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O211" s="2" t="s">
         <v>70</v>
@@ -16705,7 +16705,7 @@
         <v>22</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>73</v>
@@ -16714,13 +16714,13 @@
         <v>192</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>29</v>
@@ -16758,8 +16758,8 @@
       <c r="U212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>35</v>
+      <c r="V212" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="213">
@@ -16773,7 +16773,7 @@
         <v>22</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>75</v>
@@ -16782,13 +16782,13 @@
         <v>192</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>29</v>
@@ -16826,8 +16826,8 @@
       <c r="U213" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>35</v>
+      <c r="V213" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="214">
@@ -16841,7 +16841,7 @@
         <v>22</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>77</v>
@@ -16850,13 +16850,13 @@
         <v>192</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>29</v>
@@ -16894,8 +16894,8 @@
       <c r="U214" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>35</v>
+      <c r="V214" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="215">
@@ -16909,7 +16909,7 @@
         <v>22</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>79</v>
@@ -16918,13 +16918,13 @@
         <v>192</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>29</v>
@@ -16962,8 +16962,8 @@
       <c r="U215" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>35</v>
+      <c r="V215" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="216">
@@ -16977,7 +16977,7 @@
         <v>22</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>81</v>
@@ -16986,13 +16986,13 @@
         <v>192</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>29</v>
@@ -17030,8 +17030,8 @@
       <c r="U216" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>35</v>
+      <c r="V216" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="217">
@@ -17045,7 +17045,7 @@
         <v>22</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>83</v>
@@ -17054,13 +17054,13 @@
         <v>192</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>29</v>
@@ -17098,8 +17098,8 @@
       <c r="U217" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>35</v>
+      <c r="V217" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="218">
@@ -17113,7 +17113,7 @@
         <v>22</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>85</v>
@@ -17122,13 +17122,13 @@
         <v>192</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>29</v>
@@ -17166,8 +17166,8 @@
       <c r="U218" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>35</v>
+      <c r="V218" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="219">
@@ -17181,7 +17181,7 @@
         <v>22</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>87</v>
@@ -17190,13 +17190,13 @@
         <v>192</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>29</v>
@@ -17234,8 +17234,8 @@
       <c r="U219" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>35</v>
+      <c r="V219" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="220">
@@ -17249,7 +17249,7 @@
         <v>22</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>89</v>
@@ -17258,13 +17258,13 @@
         <v>192</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>29</v>
@@ -17302,8 +17302,8 @@
       <c r="U220" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>35</v>
+      <c r="V220" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="221">
@@ -17317,7 +17317,7 @@
         <v>22</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>91</v>
@@ -17326,13 +17326,13 @@
         <v>192</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>29</v>
@@ -17385,7 +17385,7 @@
         <v>22</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>93</v>
@@ -17394,13 +17394,13 @@
         <v>192</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>29</v>
@@ -17453,7 +17453,7 @@
         <v>22</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>71</v>
@@ -17462,13 +17462,13 @@
         <v>211</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>29</v>
@@ -17506,8 +17506,8 @@
       <c r="U223" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>35</v>
+      <c r="V223" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="224">
@@ -17521,7 +17521,7 @@
         <v>22</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>73</v>
@@ -17530,13 +17530,13 @@
         <v>211</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>29</v>
@@ -17574,8 +17574,8 @@
       <c r="U224" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>35</v>
+      <c r="V224" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="225">
@@ -17589,7 +17589,7 @@
         <v>22</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>75</v>
@@ -17598,13 +17598,13 @@
         <v>211</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>29</v>
@@ -17642,8 +17642,8 @@
       <c r="U225" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>35</v>
+      <c r="V225" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="226">
@@ -17657,7 +17657,7 @@
         <v>22</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>77</v>
@@ -17666,13 +17666,13 @@
         <v>211</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>29</v>
@@ -17710,8 +17710,8 @@
       <c r="U226" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>35</v>
+      <c r="V226" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="227">
@@ -17725,7 +17725,7 @@
         <v>22</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>79</v>
@@ -17734,13 +17734,13 @@
         <v>211</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>29</v>
@@ -17778,8 +17778,8 @@
       <c r="U227" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>35</v>
+      <c r="V227" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="228">
@@ -17793,7 +17793,7 @@
         <v>22</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>81</v>
@@ -17802,13 +17802,13 @@
         <v>211</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>29</v>
@@ -17846,8 +17846,8 @@
       <c r="U228" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>35</v>
+      <c r="V228" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="229">
@@ -17861,7 +17861,7 @@
         <v>22</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>83</v>
@@ -17870,13 +17870,13 @@
         <v>211</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>29</v>
@@ -17914,8 +17914,8 @@
       <c r="U229" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>35</v>
+      <c r="V229" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="230">
@@ -17929,7 +17929,7 @@
         <v>22</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>85</v>
@@ -17938,13 +17938,13 @@
         <v>211</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>29</v>
@@ -17982,8 +17982,8 @@
       <c r="U230" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>35</v>
+      <c r="V230" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="231">
@@ -17997,7 +17997,7 @@
         <v>22</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>87</v>
@@ -18006,13 +18006,13 @@
         <v>211</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>29</v>
@@ -18050,8 +18050,8 @@
       <c r="U231" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>35</v>
+      <c r="V231" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="232">
@@ -18065,7 +18065,7 @@
         <v>22</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>89</v>
@@ -18074,13 +18074,13 @@
         <v>211</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>29</v>
@@ -18118,8 +18118,8 @@
       <c r="U232" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>35</v>
+      <c r="V232" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="233">
@@ -18133,7 +18133,7 @@
         <v>22</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>91</v>
@@ -18142,13 +18142,13 @@
         <v>211</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>29</v>
@@ -18201,7 +18201,7 @@
         <v>22</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>93</v>
@@ -18210,13 +18210,13 @@
         <v>211</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>29</v>
@@ -18269,7 +18269,7 @@
         <v>22</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>75</v>
@@ -18278,13 +18278,13 @@
         <v>230</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>29</v>
@@ -18322,8 +18322,8 @@
       <c r="U235" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>35</v>
+      <c r="V235" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="236">
@@ -18337,7 +18337,7 @@
         <v>22</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>77</v>
@@ -18346,13 +18346,13 @@
         <v>230</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>29</v>
@@ -18390,8 +18390,8 @@
       <c r="U236" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>35</v>
+      <c r="V236" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="237">
@@ -18405,7 +18405,7 @@
         <v>22</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>47</v>
@@ -18414,13 +18414,13 @@
         <v>235</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>29</v>
@@ -18458,8 +18458,8 @@
       <c r="U237" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>35</v>
+      <c r="V237" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="238">
@@ -18473,7 +18473,7 @@
         <v>22</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>50</v>
@@ -18482,13 +18482,13 @@
         <v>235</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>29</v>
@@ -18526,8 +18526,8 @@
       <c r="U238" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>35</v>
+      <c r="V238" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="239">
@@ -18541,7 +18541,7 @@
         <v>22</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>52</v>
@@ -18550,13 +18550,13 @@
         <v>235</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>29</v>
@@ -18594,8 +18594,8 @@
       <c r="U239" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>35</v>
+      <c r="V239" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="240">
@@ -18609,7 +18609,7 @@
         <v>22</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>53</v>
@@ -18618,13 +18618,13 @@
         <v>235</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>29</v>
@@ -18662,8 +18662,8 @@
       <c r="U240" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>35</v>
+      <c r="V240" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="241">
@@ -18677,7 +18677,7 @@
         <v>22</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>24</v>
@@ -18686,13 +18686,13 @@
         <v>235</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>29</v>
@@ -18730,8 +18730,8 @@
       <c r="U241" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>35</v>
+      <c r="V241" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="242">
@@ -18745,7 +18745,7 @@
         <v>22</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>37</v>
@@ -18754,13 +18754,13 @@
         <v>235</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>29</v>
@@ -18798,8 +18798,8 @@
       <c r="U242" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>35</v>
+      <c r="V242" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="243">
@@ -18813,7 +18813,7 @@
         <v>22</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>56</v>
@@ -18822,13 +18822,13 @@
         <v>235</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>29</v>
@@ -18866,8 +18866,8 @@
       <c r="U243" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>35</v>
+      <c r="V243" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="244">
@@ -18881,7 +18881,7 @@
         <v>22</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>58</v>
@@ -18890,13 +18890,13 @@
         <v>235</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>29</v>
@@ -18934,8 +18934,8 @@
       <c r="U244" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>35</v>
+      <c r="V244" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="245">
@@ -18949,7 +18949,7 @@
         <v>22</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>60</v>
@@ -18958,13 +18958,13 @@
         <v>235</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>29</v>
@@ -19002,8 +19002,8 @@
       <c r="U245" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>35</v>
+      <c r="V245" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="246">
@@ -19017,7 +19017,7 @@
         <v>22</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>62</v>
@@ -19026,13 +19026,13 @@
         <v>235</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>29</v>
@@ -19070,8 +19070,8 @@
       <c r="U246" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>35</v>
+      <c r="V246" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="247">
@@ -19085,7 +19085,7 @@
         <v>22</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>63</v>
@@ -19094,13 +19094,13 @@
         <v>235</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>29</v>
@@ -19138,8 +19138,8 @@
       <c r="U247" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>35</v>
+      <c r="V247" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="248">
@@ -19153,7 +19153,7 @@
         <v>22</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>65</v>
@@ -19162,13 +19162,13 @@
         <v>235</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>29</v>
@@ -19206,8 +19206,8 @@
       <c r="U248" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>35</v>
+      <c r="V248" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="249">
@@ -19230,13 +19230,13 @@
         <v>235</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>29</v>
@@ -19274,8 +19274,8 @@
       <c r="U249" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>35</v>
+      <c r="V249" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="250">
@@ -19298,13 +19298,13 @@
         <v>235</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>29</v>
@@ -19342,8 +19342,8 @@
       <c r="U250" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>35</v>
+      <c r="V250" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="251">
@@ -19357,7 +19357,7 @@
         <v>22</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>71</v>
@@ -19366,13 +19366,13 @@
         <v>235</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>29</v>
@@ -19410,8 +19410,8 @@
       <c r="U251" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>35</v>
+      <c r="V251" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="252">
@@ -19425,7 +19425,7 @@
         <v>22</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>73</v>
@@ -19434,13 +19434,13 @@
         <v>235</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>29</v>
@@ -19478,8 +19478,8 @@
       <c r="U252" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>35</v>
+      <c r="V252" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="253">
@@ -19493,7 +19493,7 @@
         <v>22</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>75</v>
@@ -19502,13 +19502,13 @@
         <v>235</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>29</v>
@@ -19546,8 +19546,8 @@
       <c r="U253" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>35</v>
+      <c r="V253" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="254">
@@ -19561,7 +19561,7 @@
         <v>22</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>77</v>
@@ -19570,13 +19570,13 @@
         <v>235</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>29</v>
@@ -19614,8 +19614,8 @@
       <c r="U254" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>35</v>
+      <c r="V254" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="255">
@@ -19629,7 +19629,7 @@
         <v>22</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>79</v>
@@ -19638,13 +19638,13 @@
         <v>235</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>29</v>
@@ -19682,8 +19682,8 @@
       <c r="U255" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>35</v>
+      <c r="V255" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="256">
@@ -19697,7 +19697,7 @@
         <v>22</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>81</v>
@@ -19706,13 +19706,13 @@
         <v>235</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>29</v>
@@ -19750,8 +19750,8 @@
       <c r="U256" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>35</v>
+      <c r="V256" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="257">
@@ -19765,7 +19765,7 @@
         <v>22</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>83</v>
@@ -19774,13 +19774,13 @@
         <v>235</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>29</v>
@@ -19818,8 +19818,8 @@
       <c r="U257" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>35</v>
+      <c r="V257" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="258">
@@ -19833,7 +19833,7 @@
         <v>22</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>85</v>
@@ -19842,13 +19842,13 @@
         <v>235</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>29</v>
@@ -19886,8 +19886,8 @@
       <c r="U258" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>35</v>
+      <c r="V258" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="259">
@@ -19901,7 +19901,7 @@
         <v>22</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>87</v>
@@ -19910,13 +19910,13 @@
         <v>235</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>29</v>
@@ -19954,8 +19954,8 @@
       <c r="U259" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>35</v>
+      <c r="V259" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="260">
@@ -19969,7 +19969,7 @@
         <v>22</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>89</v>
@@ -19978,13 +19978,13 @@
         <v>235</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>29</v>
@@ -20022,8 +20022,8 @@
       <c r="U260" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>35</v>
+      <c r="V260" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="261">
@@ -20037,7 +20037,7 @@
         <v>22</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>91</v>
@@ -20046,13 +20046,13 @@
         <v>235</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>29</v>
@@ -20105,7 +20105,7 @@
         <v>22</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>93</v>
@@ -20114,13 +20114,13 @@
         <v>235</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>29</v>
@@ -20173,7 +20173,7 @@
         <v>22</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>43</v>
@@ -20182,13 +20182,13 @@
         <v>277</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>29</v>
@@ -20226,8 +20226,8 @@
       <c r="U263" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>35</v>
+      <c r="V263" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="264">
@@ -20241,7 +20241,7 @@
         <v>22</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>44</v>
@@ -20250,13 +20250,13 @@
         <v>277</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>29</v>
@@ -20294,8 +20294,8 @@
       <c r="U264" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>35</v>
+      <c r="V264" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="265">
@@ -20309,7 +20309,7 @@
         <v>22</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>47</v>
@@ -20318,13 +20318,13 @@
         <v>277</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>29</v>
@@ -20362,8 +20362,8 @@
       <c r="U265" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>35</v>
+      <c r="V265" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="266">
@@ -20377,7 +20377,7 @@
         <v>22</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>39</v>
@@ -20386,13 +20386,13 @@
         <v>280</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>29</v>
@@ -20430,8 +20430,8 @@
       <c r="U266" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>35</v>
+      <c r="V266" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="267">
@@ -20445,7 +20445,7 @@
         <v>22</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>43</v>
@@ -20454,13 +20454,13 @@
         <v>280</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>29</v>
@@ -20498,8 +20498,8 @@
       <c r="U267" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>35</v>
+      <c r="V267" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="268">
@@ -20513,7 +20513,7 @@
         <v>22</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>44</v>
@@ -20522,13 +20522,13 @@
         <v>280</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>29</v>
@@ -20566,8 +20566,8 @@
       <c r="U268" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>35</v>
+      <c r="V268" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="269">
@@ -20581,7 +20581,7 @@
         <v>22</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>47</v>
@@ -20590,13 +20590,13 @@
         <v>280</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>29</v>
@@ -20634,8 +20634,8 @@
       <c r="U269" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>35</v>
+      <c r="V269" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="270">
@@ -20649,7 +20649,7 @@
         <v>22</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>50</v>
@@ -20658,13 +20658,13 @@
         <v>280</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>29</v>
@@ -20702,8 +20702,8 @@
       <c r="U270" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>35</v>
+      <c r="V270" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="271">
@@ -20717,7 +20717,7 @@
         <v>22</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>52</v>
@@ -20726,13 +20726,13 @@
         <v>280</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>29</v>
@@ -20770,8 +20770,8 @@
       <c r="U271" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>35</v>
+      <c r="V271" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="272">
@@ -20785,7 +20785,7 @@
         <v>22</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>53</v>
@@ -20794,13 +20794,13 @@
         <v>280</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>29</v>
@@ -20838,8 +20838,8 @@
       <c r="U272" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>35</v>
+      <c r="V272" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="273">
@@ -20853,7 +20853,7 @@
         <v>22</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>24</v>
@@ -20862,13 +20862,13 @@
         <v>280</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>29</v>
@@ -20906,8 +20906,8 @@
       <c r="U273" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>35</v>
+      <c r="V273" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="274">
@@ -20921,7 +20921,7 @@
         <v>22</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>37</v>
@@ -20930,13 +20930,13 @@
         <v>280</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>29</v>
@@ -20974,8 +20974,8 @@
       <c r="U274" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>35</v>
+      <c r="V274" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="275">
@@ -20989,7 +20989,7 @@
         <v>22</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>56</v>
@@ -20998,13 +20998,13 @@
         <v>280</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>29</v>
@@ -21042,8 +21042,8 @@
       <c r="U275" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>35</v>
+      <c r="V275" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="276">
@@ -21057,7 +21057,7 @@
         <v>22</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>58</v>
@@ -21066,13 +21066,13 @@
         <v>280</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>29</v>
@@ -21110,8 +21110,8 @@
       <c r="U276" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>35</v>
+      <c r="V276" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="277">
@@ -21125,7 +21125,7 @@
         <v>22</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>60</v>
@@ -21134,13 +21134,13 @@
         <v>280</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>29</v>
@@ -21178,8 +21178,8 @@
       <c r="U277" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>35</v>
+      <c r="V277" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="278">
@@ -21193,7 +21193,7 @@
         <v>22</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>62</v>
@@ -21202,13 +21202,13 @@
         <v>280</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>29</v>
@@ -21246,8 +21246,8 @@
       <c r="U278" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>35</v>
+      <c r="V278" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="279">
@@ -21261,7 +21261,7 @@
         <v>22</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>63</v>
@@ -21270,13 +21270,13 @@
         <v>280</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J279" s="2" t="s">
         <v>29</v>
@@ -21314,8 +21314,8 @@
       <c r="U279" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>35</v>
+      <c r="V279" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="280">
@@ -21329,7 +21329,7 @@
         <v>22</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>65</v>
@@ -21338,13 +21338,13 @@
         <v>280</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J280" s="2" t="s">
         <v>29</v>
@@ -21382,8 +21382,8 @@
       <c r="U280" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>35</v>
+      <c r="V280" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="281">
@@ -21397,7 +21397,7 @@
         <v>22</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>67</v>
@@ -21406,13 +21406,13 @@
         <v>280</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J281" s="2" t="s">
         <v>29</v>
@@ -21450,8 +21450,8 @@
       <c r="U281" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>35</v>
+      <c r="V281" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="282">
@@ -21465,7 +21465,7 @@
         <v>22</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>69</v>
@@ -21474,13 +21474,13 @@
         <v>280</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J282" s="2" t="s">
         <v>29</v>
@@ -21518,8 +21518,8 @@
       <c r="U282" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>35</v>
+      <c r="V282" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="283">
@@ -21533,7 +21533,7 @@
         <v>22</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>71</v>
@@ -21542,13 +21542,13 @@
         <v>280</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J283" s="2" t="s">
         <v>29</v>
@@ -21586,8 +21586,8 @@
       <c r="U283" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>35</v>
+      <c r="V283" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="284">
@@ -21601,7 +21601,7 @@
         <v>22</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>73</v>
@@ -21610,13 +21610,13 @@
         <v>280</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J284" s="2" t="s">
         <v>29</v>
@@ -21654,8 +21654,8 @@
       <c r="U284" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>35</v>
+      <c r="V284" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="285">
@@ -21669,7 +21669,7 @@
         <v>22</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>75</v>
@@ -21678,13 +21678,13 @@
         <v>280</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J285" s="2" t="s">
         <v>29</v>
@@ -21722,8 +21722,8 @@
       <c r="U285" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>35</v>
+      <c r="V285" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="286">
@@ -21737,7 +21737,7 @@
         <v>22</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>77</v>
@@ -21746,13 +21746,13 @@
         <v>280</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>29</v>
@@ -21790,8 +21790,8 @@
       <c r="U286" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>35</v>
+      <c r="V286" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="287">
@@ -21805,7 +21805,7 @@
         <v>22</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>79</v>
@@ -21814,13 +21814,13 @@
         <v>280</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>29</v>
@@ -21858,8 +21858,8 @@
       <c r="U287" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>35</v>
+      <c r="V287" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="288">
@@ -21873,7 +21873,7 @@
         <v>22</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>81</v>
@@ -21882,13 +21882,13 @@
         <v>280</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J288" s="2" t="s">
         <v>29</v>
@@ -21926,8 +21926,8 @@
       <c r="U288" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>35</v>
+      <c r="V288" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="289">
@@ -21941,7 +21941,7 @@
         <v>22</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>83</v>
@@ -21950,13 +21950,13 @@
         <v>280</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>29</v>
@@ -21994,8 +21994,8 @@
       <c r="U289" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>35</v>
+      <c r="V289" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="290">
@@ -22009,7 +22009,7 @@
         <v>22</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>85</v>
@@ -22018,13 +22018,13 @@
         <v>280</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J290" s="2" t="s">
         <v>29</v>
@@ -22062,8 +22062,8 @@
       <c r="U290" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>35</v>
+      <c r="V290" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="291">
@@ -22077,7 +22077,7 @@
         <v>22</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>87</v>
@@ -22086,13 +22086,13 @@
         <v>280</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J291" s="2" t="s">
         <v>29</v>
@@ -22130,8 +22130,8 @@
       <c r="U291" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>35</v>
+      <c r="V291" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="292">
@@ -22145,7 +22145,7 @@
         <v>22</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>89</v>
@@ -22154,13 +22154,13 @@
         <v>280</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>29</v>
@@ -22198,8 +22198,8 @@
       <c r="U292" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>35</v>
+      <c r="V292" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="293">
@@ -22213,7 +22213,7 @@
         <v>22</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>91</v>
@@ -22222,13 +22222,13 @@
         <v>280</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>29</v>
@@ -22281,7 +22281,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>93</v>
@@ -22290,13 +22290,13 @@
         <v>280</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>29</v>
@@ -22349,7 +22349,7 @@
         <v>22</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>325</v>
@@ -22358,13 +22358,13 @@
         <v>299</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>29</v>
@@ -22379,7 +22379,7 @@
         <v>32</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O295" s="2" t="s">
         <v>34</v>
@@ -22402,8 +22402,8 @@
       <c r="U295" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>35</v>
+      <c r="V295" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="296">
@@ -22426,13 +22426,13 @@
         <v>299</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J296" s="2" t="s">
         <v>29</v>
@@ -22447,13 +22447,13 @@
         <v>32</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O296" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P296" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q296" s="2" t="s">
         <v>34</v>
@@ -22470,8 +22470,8 @@
       <c r="U296" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V296" s="1" t="s">
-        <v>35</v>
+      <c r="V296" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="297">
@@ -22485,7 +22485,7 @@
         <v>22</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>232</v>
@@ -22494,13 +22494,13 @@
         <v>299</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>29</v>
@@ -22515,13 +22515,13 @@
         <v>32</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O297" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P297" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q297" s="2" t="s">
         <v>34</v>
@@ -22538,8 +22538,8 @@
       <c r="U297" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V297" s="1" t="s">
-        <v>35</v>
+      <c r="V297" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="298">
@@ -22553,7 +22553,7 @@
         <v>22</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>335</v>
@@ -22562,13 +22562,13 @@
         <v>299</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J298" s="2" t="s">
         <v>29</v>
@@ -22583,7 +22583,7 @@
         <v>32</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O298" s="2" t="s">
         <v>34</v>
@@ -22606,8 +22606,8 @@
       <c r="U298" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V298" s="1" t="s">
-        <v>35</v>
+      <c r="V298" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="299">
@@ -22630,13 +22630,13 @@
         <v>299</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J299" s="2" t="s">
         <v>29</v>
@@ -22651,7 +22651,7 @@
         <v>32</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O299" s="2" t="s">
         <v>34</v>
@@ -22674,8 +22674,8 @@
       <c r="U299" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V299" s="1" t="s">
-        <v>35</v>
+      <c r="V299" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="300">
@@ -22689,7 +22689,7 @@
         <v>22</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>43</v>
@@ -22698,13 +22698,13 @@
         <v>299</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J300" s="2" t="s">
         <v>29</v>
@@ -22719,7 +22719,7 @@
         <v>32</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O300" s="2" t="s">
         <v>34</v>
@@ -22742,8 +22742,8 @@
       <c r="U300" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>35</v>
+      <c r="V300" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="301">
@@ -22757,7 +22757,7 @@
         <v>22</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>44</v>
@@ -22766,13 +22766,13 @@
         <v>299</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J301" s="2" t="s">
         <v>29</v>
@@ -22787,7 +22787,7 @@
         <v>32</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O301" s="2" t="s">
         <v>34</v>
@@ -22810,8 +22810,8 @@
       <c r="U301" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>35</v>
+      <c r="V301" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="302">
@@ -22825,7 +22825,7 @@
         <v>22</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>47</v>
@@ -22834,13 +22834,13 @@
         <v>299</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J302" s="2" t="s">
         <v>29</v>
@@ -22855,13 +22855,13 @@
         <v>32</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O302" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P302" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q302" s="2" t="s">
         <v>34</v>
@@ -22878,8 +22878,8 @@
       <c r="U302" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>35</v>
+      <c r="V302" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="303">
@@ -22902,13 +22902,13 @@
         <v>299</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J303" s="2" t="s">
         <v>29</v>
@@ -22923,7 +22923,7 @@
         <v>32</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O303" s="2" t="s">
         <v>34</v>
@@ -22946,8 +22946,8 @@
       <c r="U303" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>35</v>
+      <c r="V303" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="304">
@@ -22961,7 +22961,7 @@
         <v>22</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>52</v>
@@ -22970,13 +22970,13 @@
         <v>299</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J304" s="2" t="s">
         <v>29</v>
@@ -22991,13 +22991,13 @@
         <v>32</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O304" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q304" s="2" t="s">
         <v>34</v>
@@ -23014,8 +23014,8 @@
       <c r="U304" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>35</v>
+      <c r="V304" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="305">
@@ -23029,7 +23029,7 @@
         <v>22</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>53</v>
@@ -23038,13 +23038,13 @@
         <v>299</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>29</v>
@@ -23059,13 +23059,13 @@
         <v>32</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O305" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q305" s="2" t="s">
         <v>34</v>
@@ -23082,8 +23082,8 @@
       <c r="U305" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>35</v>
+      <c r="V305" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="306">
@@ -23097,7 +23097,7 @@
         <v>22</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>24</v>
@@ -23106,13 +23106,13 @@
         <v>299</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J306" s="2" t="s">
         <v>29</v>
@@ -23127,13 +23127,13 @@
         <v>32</v>
       </c>
       <c r="N306" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P306" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q306" s="2" t="s">
         <v>34</v>
@@ -23150,8 +23150,8 @@
       <c r="U306" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>35</v>
+      <c r="V306" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="307">
@@ -23165,7 +23165,7 @@
         <v>22</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>37</v>
@@ -23174,13 +23174,13 @@
         <v>299</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J307" s="2" t="s">
         <v>29</v>
@@ -23195,13 +23195,13 @@
         <v>32</v>
       </c>
       <c r="N307" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P307" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q307" s="2" t="s">
         <v>34</v>
@@ -23218,8 +23218,8 @@
       <c r="U307" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>35</v>
+      <c r="V307" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="308">
@@ -23242,13 +23242,13 @@
         <v>299</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J308" s="2" t="s">
         <v>29</v>
@@ -23263,13 +23263,13 @@
         <v>32</v>
       </c>
       <c r="N308" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P308" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q308" s="2" t="s">
         <v>34</v>
@@ -23286,8 +23286,8 @@
       <c r="U308" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>35</v>
+      <c r="V308" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="309">
@@ -23301,7 +23301,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>58</v>
@@ -23310,13 +23310,13 @@
         <v>299</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J309" s="2" t="s">
         <v>29</v>
@@ -23331,10 +23331,10 @@
         <v>32</v>
       </c>
       <c r="N309" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O309" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P309" s="2" t="s">
         <v>157</v>
@@ -23354,8 +23354,8 @@
       <c r="U309" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>35</v>
+      <c r="V309" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="310">
@@ -23369,7 +23369,7 @@
         <v>22</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>60</v>
@@ -23378,13 +23378,13 @@
         <v>299</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J310" s="2" t="s">
         <v>29</v>
@@ -23399,10 +23399,10 @@
         <v>32</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O310" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P310" s="2" t="s">
         <v>115</v>
@@ -23422,8 +23422,8 @@
       <c r="U310" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>35</v>
+      <c r="V310" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="311">
@@ -23437,7 +23437,7 @@
         <v>22</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>62</v>
@@ -23446,13 +23446,13 @@
         <v>299</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J311" s="2" t="s">
         <v>29</v>
@@ -23467,13 +23467,13 @@
         <v>32</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O311" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P311" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q311" s="2" t="s">
         <v>34</v>
@@ -23490,8 +23490,8 @@
       <c r="U311" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>35</v>
+      <c r="V311" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="312">
@@ -23505,7 +23505,7 @@
         <v>22</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>63</v>
@@ -23514,13 +23514,13 @@
         <v>299</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J312" s="2" t="s">
         <v>29</v>
@@ -23535,7 +23535,7 @@
         <v>32</v>
       </c>
       <c r="N312" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O312" s="2" t="s">
         <v>237</v>
@@ -23558,8 +23558,8 @@
       <c r="U312" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>35</v>
+      <c r="V312" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="313">
@@ -23582,13 +23582,13 @@
         <v>299</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J313" s="2" t="s">
         <v>29</v>
@@ -23626,8 +23626,8 @@
       <c r="U313" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>35</v>
+      <c r="V313" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="314">
@@ -23641,7 +23641,7 @@
         <v>22</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>67</v>
@@ -23650,13 +23650,13 @@
         <v>299</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J314" s="2" t="s">
         <v>29</v>
@@ -23694,8 +23694,8 @@
       <c r="U314" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>35</v>
+      <c r="V314" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="315">
@@ -23709,7 +23709,7 @@
         <v>22</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>69</v>
@@ -23718,13 +23718,13 @@
         <v>299</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J315" s="2" t="s">
         <v>29</v>
@@ -23762,8 +23762,8 @@
       <c r="U315" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>35</v>
+      <c r="V315" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="316">
@@ -23777,7 +23777,7 @@
         <v>22</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>71</v>
@@ -23786,13 +23786,13 @@
         <v>299</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>29</v>
@@ -23830,8 +23830,8 @@
       <c r="U316" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>35</v>
+      <c r="V316" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="317">
@@ -23845,7 +23845,7 @@
         <v>22</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>73</v>
@@ -23854,13 +23854,13 @@
         <v>299</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J317" s="2" t="s">
         <v>29</v>
@@ -23898,8 +23898,8 @@
       <c r="U317" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>35</v>
+      <c r="V317" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="318">
@@ -23913,7 +23913,7 @@
         <v>22</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>75</v>
@@ -23922,13 +23922,13 @@
         <v>299</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>29</v>
@@ -23943,7 +23943,7 @@
         <v>32</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O318" s="2" t="s">
         <v>141</v>
@@ -23966,8 +23966,8 @@
       <c r="U318" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>35</v>
+      <c r="V318" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="319">
@@ -23981,7 +23981,7 @@
         <v>22</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>565</v>
+        <v>417</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>77</v>
@@ -23990,13 +23990,13 @@
         <v>299</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J319" s="2" t="s">
         <v>29</v>
@@ -24034,8 +24034,8 @@
       <c r="U319" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>35</v>
+      <c r="V319" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="320">
@@ -24058,13 +24058,13 @@
         <v>299</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J320" s="2" t="s">
         <v>29</v>
@@ -24102,8 +24102,8 @@
       <c r="U320" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>35</v>
+      <c r="V320" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="321">
@@ -24126,13 +24126,13 @@
         <v>299</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J321" s="2" t="s">
         <v>29</v>
@@ -24170,8 +24170,8 @@
       <c r="U321" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>35</v>
+      <c r="V321" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="322">
@@ -24194,13 +24194,13 @@
         <v>299</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J322" s="2" t="s">
         <v>29</v>
@@ -24215,7 +24215,7 @@
         <v>32</v>
       </c>
       <c r="N322" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O322" s="2" t="s">
         <v>569</v>
@@ -24238,8 +24238,8 @@
       <c r="U322" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V322" s="1" t="s">
-        <v>35</v>
+      <c r="V322" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="323">
@@ -24262,13 +24262,13 @@
         <v>299</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J323" s="2" t="s">
         <v>29</v>
@@ -24306,8 +24306,8 @@
       <c r="U323" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V323" s="1" t="s">
-        <v>35</v>
+      <c r="V323" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="324">
@@ -24330,13 +24330,13 @@
         <v>299</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>29</v>
@@ -24374,8 +24374,8 @@
       <c r="U324" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V324" s="1" t="s">
-        <v>35</v>
+      <c r="V324" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="325">
@@ -24398,13 +24398,13 @@
         <v>299</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J325" s="2" t="s">
         <v>29</v>
@@ -24442,8 +24442,8 @@
       <c r="U325" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>35</v>
+      <c r="V325" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="326">
@@ -24466,13 +24466,13 @@
         <v>299</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J326" s="2" t="s">
         <v>29</v>
@@ -24534,13 +24534,13 @@
         <v>299</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J327" s="2" t="s">
         <v>29</v>
@@ -24646,8 +24646,8 @@
       <c r="U328" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V328" s="1" t="s">
-        <v>35</v>
+      <c r="V328" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="329">
@@ -24714,8 +24714,8 @@
       <c r="U329" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>35</v>
+      <c r="V329" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="330">
@@ -24782,8 +24782,8 @@
       <c r="U330" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>35</v>
+      <c r="V330" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="331">
@@ -24850,8 +24850,8 @@
       <c r="U331" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>35</v>
+      <c r="V331" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="332">
@@ -24918,8 +24918,8 @@
       <c r="U332" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>35</v>
+      <c r="V332" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="333">
@@ -24986,8 +24986,8 @@
       <c r="U333" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>35</v>
+      <c r="V333" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="334">
@@ -25054,8 +25054,8 @@
       <c r="U334" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V334" s="1" t="s">
-        <v>35</v>
+      <c r="V334" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="335">
@@ -25258,8 +25258,8 @@
       <c r="U337" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V337" s="1" t="s">
-        <v>35</v>
+      <c r="V337" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="338">
@@ -25326,8 +25326,8 @@
       <c r="U338" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>35</v>
+      <c r="V338" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="339">
@@ -25394,8 +25394,8 @@
       <c r="U339" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>35</v>
+      <c r="V339" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="340">
@@ -25462,8 +25462,8 @@
       <c r="U340" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>35</v>
+      <c r="V340" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="341">
@@ -25530,8 +25530,8 @@
       <c r="U341" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>35</v>
+      <c r="V341" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="342">
@@ -25598,8 +25598,8 @@
       <c r="U342" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>35</v>
+      <c r="V342" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="343">
@@ -25666,8 +25666,8 @@
       <c r="U343" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>35</v>
+      <c r="V343" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="344">
@@ -25870,8 +25870,8 @@
       <c r="U346" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>35</v>
+      <c r="V346" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="347">
@@ -25938,8 +25938,8 @@
       <c r="U347" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V347" s="1" t="s">
-        <v>35</v>
+      <c r="V347" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="348">
@@ -26006,8 +26006,8 @@
       <c r="U348" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V348" s="1" t="s">
-        <v>35</v>
+      <c r="V348" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="349">
@@ -26074,8 +26074,8 @@
       <c r="U349" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V349" s="1" t="s">
-        <v>35</v>
+      <c r="V349" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="350">
@@ -26142,8 +26142,8 @@
       <c r="U350" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>35</v>
+      <c r="V350" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="351">
@@ -26210,8 +26210,8 @@
       <c r="U351" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V351" s="1" t="s">
-        <v>35</v>
+      <c r="V351" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="352">
@@ -26278,8 +26278,8 @@
       <c r="U352" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V352" s="1" t="s">
-        <v>35</v>
+      <c r="V352" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="353">
@@ -26346,8 +26346,8 @@
       <c r="U353" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V353" s="1" t="s">
-        <v>35</v>
+      <c r="V353" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="354">
@@ -26414,8 +26414,8 @@
       <c r="U354" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V354" s="1" t="s">
-        <v>35</v>
+      <c r="V354" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="355">
@@ -26482,8 +26482,8 @@
       <c r="U355" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>35</v>
+      <c r="V355" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="356">
@@ -26550,8 +26550,8 @@
       <c r="U356" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>35</v>
+      <c r="V356" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="357">
@@ -26618,8 +26618,8 @@
       <c r="U357" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>35</v>
+      <c r="V357" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="358">
@@ -26686,8 +26686,8 @@
       <c r="U358" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V358" s="1" t="s">
-        <v>35</v>
+      <c r="V358" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="359">
@@ -26754,8 +26754,8 @@
       <c r="U359" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V359" s="1" t="s">
-        <v>35</v>
+      <c r="V359" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="360">
@@ -26822,8 +26822,8 @@
       <c r="U360" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V360" s="1" t="s">
-        <v>35</v>
+      <c r="V360" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="361">
@@ -26890,8 +26890,8 @@
       <c r="U361" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V361" s="1" t="s">
-        <v>35</v>
+      <c r="V361" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="362">
@@ -26958,8 +26958,8 @@
       <c r="U362" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V362" s="1" t="s">
-        <v>35</v>
+      <c r="V362" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="363">
@@ -27026,8 +27026,8 @@
       <c r="U363" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V363" s="1" t="s">
-        <v>35</v>
+      <c r="V363" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="364">
@@ -27094,8 +27094,8 @@
       <c r="U364" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V364" s="1" t="s">
-        <v>35</v>
+      <c r="V364" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="365">
@@ -27162,8 +27162,8 @@
       <c r="U365" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V365" s="1" t="s">
-        <v>35</v>
+      <c r="V365" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="366">
@@ -27230,8 +27230,8 @@
       <c r="U366" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V366" s="1" t="s">
-        <v>35</v>
+      <c r="V366" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="367">
@@ -27298,8 +27298,8 @@
       <c r="U367" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V367" s="1" t="s">
-        <v>35</v>
+      <c r="V367" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="368">
@@ -27502,8 +27502,8 @@
       <c r="U370" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V370" s="1" t="s">
-        <v>35</v>
+      <c r="V370" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="371">
@@ -27570,8 +27570,8 @@
       <c r="U371" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V371" s="1" t="s">
-        <v>35</v>
+      <c r="V371" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="372">
@@ -27638,8 +27638,8 @@
       <c r="U372" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V372" s="1" t="s">
-        <v>35</v>
+      <c r="V372" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="373">
@@ -27706,8 +27706,8 @@
       <c r="U373" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V373" s="1" t="s">
-        <v>35</v>
+      <c r="V373" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="374">
@@ -27774,8 +27774,8 @@
       <c r="U374" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V374" s="1" t="s">
-        <v>35</v>
+      <c r="V374" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="375">
@@ -27842,8 +27842,8 @@
       <c r="U375" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V375" s="1" t="s">
-        <v>35</v>
+      <c r="V375" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="376">
@@ -27910,8 +27910,8 @@
       <c r="U376" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V376" s="1" t="s">
-        <v>35</v>
+      <c r="V376" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="377">
@@ -27978,8 +27978,8 @@
       <c r="U377" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V377" s="1" t="s">
-        <v>35</v>
+      <c r="V377" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="378">
@@ -28046,8 +28046,8 @@
       <c r="U378" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V378" s="1" t="s">
-        <v>35</v>
+      <c r="V378" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="379">
@@ -28114,8 +28114,8 @@
       <c r="U379" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V379" s="1" t="s">
-        <v>35</v>
+      <c r="V379" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="380">
@@ -28135,7 +28135,7 @@
         <v>325</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G380" s="1" t="s">
         <v>642</v>
@@ -28182,8 +28182,8 @@
       <c r="U380" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V380" s="1" t="s">
-        <v>35</v>
+      <c r="V380" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="381">
@@ -28203,7 +28203,7 @@
         <v>328</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G381" s="1" t="s">
         <v>642</v>
@@ -28250,8 +28250,8 @@
       <c r="U381" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V381" s="1" t="s">
-        <v>35</v>
+      <c r="V381" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-GUI.xlsx
+++ b/Excel-XLSX/UN-GUI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>p8eKtO</t>
+    <t>La9T6J</t>
   </si>
   <si>
     <t>1990</t>
@@ -1962,6 +1962,12 @@
     <t>2024</t>
   </si>
   <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
     <t>382</t>
   </si>
   <si>
@@ -1995,16 +2001,25 @@
     <t>393</t>
   </si>
   <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
     <t>1650</t>
   </si>
   <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
     <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2404,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V397"/>
+  <dimension ref="A1:V400"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -28322,16 +28337,16 @@
         <v>647</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>77</v>
+        <v>648</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>78</v>
+        <v>649</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>78</v>
+        <v>649</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>28</v>
@@ -28346,10 +28361,10 @@
         <v>31</v>
       </c>
       <c r="N382" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O382" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="P382" s="2" t="s">
         <v>33</v>
@@ -28384,22 +28399,22 @@
         <v>22</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>28</v>
@@ -28414,7 +28429,7 @@
         <v>31</v>
       </c>
       <c r="N383" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="O383" s="2" t="s">
         <v>33</v>
@@ -28452,22 +28467,22 @@
         <v>22</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="J384" s="2" t="s">
         <v>28</v>
@@ -28482,7 +28497,7 @@
         <v>31</v>
       </c>
       <c r="N384" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="O384" s="2" t="s">
         <v>33</v>
@@ -28520,22 +28535,22 @@
         <v>22</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>28</v>
@@ -28550,7 +28565,7 @@
         <v>31</v>
       </c>
       <c r="N385" s="2" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="O385" s="2" t="s">
         <v>33</v>
@@ -28588,22 +28603,22 @@
         <v>22</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>455</v>
+        <v>115</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>456</v>
+        <v>116</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="J386" s="2" t="s">
         <v>28</v>
@@ -28618,10 +28633,10 @@
         <v>31</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="O386" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>33</v>
@@ -28656,22 +28671,22 @@
         <v>22</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>527</v>
+        <v>455</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>529</v>
+        <v>457</v>
       </c>
       <c r="J387" s="2" t="s">
         <v>28</v>
@@ -28686,7 +28701,7 @@
         <v>31</v>
       </c>
       <c r="N387" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="O387" s="2" t="s">
         <v>33</v>
@@ -28724,22 +28739,22 @@
         <v>22</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>227</v>
+        <v>527</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>228</v>
+        <v>528</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>229</v>
+        <v>529</v>
       </c>
       <c r="J388" s="2" t="s">
         <v>28</v>
@@ -28754,7 +28769,7 @@
         <v>31</v>
       </c>
       <c r="N388" s="2" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="O388" s="2" t="s">
         <v>33</v>
@@ -28792,22 +28807,22 @@
         <v>22</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>28</v>
@@ -28822,10 +28837,10 @@
         <v>31</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>570</v>
+        <v>96</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="P389" s="2" t="s">
         <v>33</v>
@@ -28866,16 +28881,16 @@
         <v>647</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>442</v>
+        <v>576</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>443</v>
+        <v>577</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>443</v>
+        <v>577</v>
       </c>
       <c r="J390" s="2" t="s">
         <v>28</v>
@@ -28890,10 +28905,10 @@
         <v>31</v>
       </c>
       <c r="N390" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P390" s="2" t="s">
         <v>33</v>
@@ -28928,22 +28943,22 @@
         <v>22</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>424</v>
+        <v>26</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>425</v>
+        <v>27</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>425</v>
+        <v>27</v>
       </c>
       <c r="J391" s="2" t="s">
         <v>28</v>
@@ -28958,10 +28973,10 @@
         <v>31</v>
       </c>
       <c r="N391" s="2" t="s">
-        <v>62</v>
+        <v>557</v>
       </c>
       <c r="O391" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="P391" s="2" t="s">
         <v>33</v>
@@ -28996,22 +29011,22 @@
         <v>22</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>132</v>
+        <v>442</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>133</v>
+        <v>443</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>28</v>
@@ -29064,22 +29079,22 @@
         <v>22</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="J393" s="2" t="s">
         <v>28</v>
@@ -29094,7 +29109,7 @@
         <v>31</v>
       </c>
       <c r="N393" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O393" s="2" t="s">
         <v>33</v>
@@ -29132,22 +29147,22 @@
         <v>22</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="J394" s="2" t="s">
         <v>28</v>
@@ -29162,10 +29177,10 @@
         <v>31</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>659</v>
+        <v>65</v>
       </c>
       <c r="O394" s="2" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="P394" s="2" t="s">
         <v>33</v>
@@ -29200,22 +29215,22 @@
         <v>22</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>472</v>
+        <v>84</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>473</v>
+        <v>85</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>473</v>
+        <v>85</v>
       </c>
       <c r="J395" s="2" t="s">
         <v>28</v>
@@ -29230,7 +29245,7 @@
         <v>31</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O395" s="2" t="s">
         <v>33</v>
@@ -29268,22 +29283,22 @@
         <v>22</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>543</v>
+        <v>40</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>544</v>
+        <v>41</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>544</v>
+        <v>41</v>
       </c>
       <c r="J396" s="2" t="s">
         <v>28</v>
@@ -29298,10 +29313,10 @@
         <v>31</v>
       </c>
       <c r="N396" s="2" t="s">
-        <v>79</v>
+        <v>663</v>
       </c>
       <c r="O396" s="2" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="P396" s="2" t="s">
         <v>33</v>
@@ -29336,60 +29351,264 @@
         <v>22</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F397" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J397" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M397" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N397" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V397" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J398" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L398" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M398" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O398" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V398" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J399" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M399" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N399" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V399" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F400" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G397" s="1" t="s">
+      <c r="G400" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H397" s="1" t="s">
+      <c r="H400" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I397" s="1" t="s">
+      <c r="I400" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J397" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K397" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L397" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M397" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N397" s="2" t="s">
+      <c r="J400" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K400" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M400" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N400" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O397" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P397" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q397" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R397" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S397" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T397" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U397" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V397" s="2" t="s">
+      <c r="O400" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P400" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q400" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R400" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S400" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T400" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U400" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V400" s="2" t="s">
         <v>33</v>
       </c>
     </row>
